--- a/Principal Components Regression/PCR_metrics_SNV.xlsx
+++ b/Principal Components Regression/PCR_metrics_SNV.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.663634131670054</v>
+        <v>0.7307723226392371</v>
       </c>
       <c r="C2" t="n">
-        <v>1.408990139000332</v>
+        <v>1.202103898567646</v>
       </c>
       <c r="D2" t="n">
-        <v>4.586165037561708</v>
+        <v>2.806623157236007</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6767165960453468</v>
+        <v>0.8045411892272615</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.680192024185629</v>
+        <v>0.8274261240828011</v>
       </c>
       <c r="C3" t="n">
-        <v>1.373873157990996</v>
+        <v>0.9624311700748046</v>
       </c>
       <c r="D3" t="n">
-        <v>4.536521823780537</v>
+        <v>2.475452103662918</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6801920241856292</v>
+        <v>0.8274261240828003</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6470105292875759</v>
+        <v>0.7877350231790825</v>
       </c>
       <c r="C4" t="n">
-        <v>1.552101731857313</v>
+        <v>1.155768854429506</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.825383792786553</v>
+        <v>-1.094247799713132</v>
       </c>
       <c r="E4" t="n">
-        <v>1.199743353046484</v>
+        <v>1.075424092460508</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.157771825663228</v>
+        <v>0.4578929626912872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2844600007772587</v>
+        <v>0.2000963044947847</v>
       </c>
       <c r="D5" t="n">
-        <v>2.670324825819297</v>
+        <v>1.418100737871107</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1903338430510572</v>
+        <v>0.5653244913605686</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2197328025067705</v>
+        <v>0.6211678400505276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2737965673255309</v>
+        <v>0.1672707350791023</v>
       </c>
       <c r="D6" t="n">
-        <v>2.570931370373489</v>
+        <v>1.238121803262707</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2197328025067706</v>
+        <v>0.6211678400505289</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3928944531664421</v>
+        <v>0.6908233072486043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2012574209327698</v>
+        <v>0.1513337059888937</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.453305923129485</v>
+        <v>-0.7798238103935176</v>
       </c>
       <c r="E7" t="n">
-        <v>1.433560099552716</v>
+        <v>1.225388760550596</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5527084066907292</v>
+        <v>0.7791849546142735</v>
       </c>
       <c r="C8" t="n">
-        <v>2.038549523050573</v>
+        <v>1.136613501607695</v>
       </c>
       <c r="D8" t="n">
-        <v>6.636333902786213</v>
+        <v>2.594365101858803</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5733362113662385</v>
+        <v>0.8334201149357007</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5832744389514062</v>
+        <v>0.8495069705088338</v>
       </c>
       <c r="C9" t="n">
-        <v>1.967664129081619</v>
+        <v>0.9383323136888507</v>
       </c>
       <c r="D9" t="n">
-        <v>6.488044604445604</v>
+        <v>2.345646805026947</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5832744389514065</v>
+        <v>0.8495069705088349</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7577383630511738</v>
+        <v>0.7768500395733182</v>
       </c>
       <c r="C10" t="n">
-        <v>1.264901899339761</v>
+        <v>1.197554733584067</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.592134987825123</v>
+        <v>-0.1117280810865715</v>
       </c>
       <c r="E10" t="n">
-        <v>1.088466008817192</v>
+        <v>1.005355560581772</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4268115269032979</v>
+        <v>0.4375408960332342</v>
       </c>
       <c r="C11" t="n">
-        <v>71.16958913261428</v>
+        <v>63.78787089896218</v>
       </c>
       <c r="D11" t="n">
-        <v>275.8012240375267</v>
+        <v>271.2743700301526</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4502788181499504</v>
+        <v>0.4537841020035284</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4709793975495702</v>
+        <v>0.4809629703582975</v>
       </c>
       <c r="C12" t="n">
-        <v>68.372589349937</v>
+        <v>61.276196848001</v>
       </c>
       <c r="D12" t="n">
-        <v>265.8585238339469</v>
+        <v>258.3961136694739</v>
       </c>
       <c r="E12" t="n">
-        <v>0.47097939754957</v>
+        <v>0.4809629703582972</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4518233607721982</v>
+        <v>0.5514258114841684</v>
       </c>
       <c r="C13" t="n">
-        <v>72.80720533467121</v>
+        <v>65.22155300876923</v>
       </c>
       <c r="D13" t="n">
-        <v>-14.53131961434804</v>
+        <v>-53.13850790017449</v>
       </c>
       <c r="E13" t="n">
-        <v>1.039352545860674</v>
+        <v>1.11273312580113</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4266590909589019</v>
+        <v>0.5112812304108777</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3561131076306741</v>
+        <v>0.2857699568995835</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5593615668866763</v>
+        <v>0.4041575586053408</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4627064128126002</v>
+        <v>0.5931769924604889</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4876822020075539</v>
+        <v>0.6405232806106063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3366287587484827</v>
+        <v>0.2450882239976925</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5326172929140439</v>
+        <v>0.3597815920501421</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4876822020075535</v>
+        <v>0.6405232806106063</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.414250404302794</v>
+        <v>0.7083953287988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5038698832967544</v>
+        <v>0.2701973744111743</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3238277692232285</v>
+        <v>-0.1502644124240271</v>
       </c>
       <c r="E16" t="n">
-        <v>1.393976551353625</v>
+        <v>1.17639344696214</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
